--- a/StructureDefinition-profile-OrganizationAffiliation.xlsx
+++ b/StructureDefinition-profile-OrganizationAffiliation.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="221">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T13:17:30.7585912-06:00</t>
+    <t>2026-02-09T22:05:43.2537661-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -413,38 +413,68 @@
     <t>OrganizationAffiliation.extension</t>
   </si>
   <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>OrganizationAffiliation.extension:contact</t>
+  </si>
+  <si>
+    <t>contact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-OrganizationAffiliation.contact|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for OrganizationAffiliation.contact from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The contact details of communication devices available at the participatingOrganization relevant to this Affiliation.</t>
+  </si>
+  <si>
+    <t>Element `OrganizationAffiliation.contact` is will have a context of OrganizationAffiliation based on following the parent source element upwards and mapping to `OrganizationAffiliation`.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>OrganizationAffiliation.modifierExtension</t>
+  </si>
+  <si>
     <t>extensions
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>OrganizationAffiliation.modifierExtension</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
@@ -979,7 +1009,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL22"/>
+  <dimension ref="A1:AL23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -998,7 +1028,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="29.68359375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="92.71484375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1904,7 +1934,7 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>129</v>
+        <v>75</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -1923,17 +1953,15 @@
         <v>75</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="M9" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>133</v>
-      </c>
+      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>75</v>
@@ -1970,16 +1998,14 @@
         <v>75</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>134</v>
@@ -1997,7 +2023,7 @@
         <v>135</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>127</v>
+        <v>75</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>75</v>
@@ -2008,11 +2034,13 @@
         <v>136</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="D10" t="s" s="2">
-        <v>129</v>
+        <v>75</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2025,26 +2053,24 @@
         <v>75</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>75</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>75</v>
       </c>
@@ -2092,7 +2118,7 @@
         <v>75</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>76</v>
@@ -2101,13 +2127,13 @@
         <v>77</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>75</v>
+        <v>142</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>135</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>127</v>
+        <v>75</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>75</v>
@@ -2115,14 +2141,14 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>75</v>
+        <v>144</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
@@ -2135,23 +2161,25 @@
         <v>75</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="N11" s="2"/>
+        <v>146</v>
+      </c>
+      <c r="N11" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="O11" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>75</v>
@@ -2200,7 +2228,7 @@
         <v>75</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>76</v>
@@ -2212,21 +2240,21 @@
         <v>75</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>147</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2237,7 +2265,7 @@
         <v>76</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>75</v>
@@ -2249,76 +2277,72 @@
         <v>85</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L12" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="N12" s="2"/>
+      <c r="O12" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="P12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q12" s="2"/>
+      <c r="R12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF12" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="M12" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="O12" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="P12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q12" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="R12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF12" t="s" s="2">
-        <v>148</v>
-      </c>
       <c r="AG12" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>75</v>
@@ -2369,14 +2393,18 @@
       <c r="M13" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="N13" s="2"/>
+      <c r="N13" t="s" s="2">
+        <v>161</v>
+      </c>
       <c r="O13" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="Q13" s="2"/>
+      <c r="Q13" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="R13" t="s" s="2">
         <v>75</v>
       </c>
@@ -2435,18 +2463,18 @@
         <v>96</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2469,16 +2497,18 @@
         <v>85</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
+      <c r="O14" t="s" s="2">
+        <v>170</v>
+      </c>
       <c r="P14" t="s" s="2">
         <v>75</v>
       </c>
@@ -2526,7 +2556,7 @@
         <v>75</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>76</v>
@@ -2541,18 +2571,18 @@
         <v>96</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>75</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2575,13 +2605,13 @@
         <v>85</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -2632,7 +2662,7 @@
         <v>75</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>76</v>
@@ -2647,7 +2677,7 @@
         <v>96</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>75</v>
@@ -2655,10 +2685,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2669,7 +2699,7 @@
         <v>76</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>75</v>
@@ -2681,13 +2711,13 @@
         <v>85</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -2738,13 +2768,13 @@
         <v>75</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>75</v>
@@ -2753,7 +2783,7 @@
         <v>96</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>75</v>
+        <v>181</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>75</v>
@@ -2761,10 +2791,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -2787,13 +2817,13 @@
         <v>85</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -2820,31 +2850,31 @@
         <v>75</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>180</v>
+        <v>75</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>181</v>
+        <v>75</v>
       </c>
       <c r="Z17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF17" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF17" t="s" s="2">
-        <v>176</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>76</v>
@@ -2859,7 +2889,7 @@
         <v>96</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>183</v>
+        <v>75</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>75</v>
@@ -2867,10 +2897,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -2893,13 +2923,13 @@
         <v>85</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -2926,13 +2956,13 @@
         <v>75</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>108</v>
+        <v>189</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>75</v>
@@ -2950,7 +2980,7 @@
         <v>75</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>76</v>
@@ -2965,7 +2995,7 @@
         <v>96</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>75</v>
@@ -2973,10 +3003,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -2999,13 +3029,13 @@
         <v>85</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3032,13 +3062,13 @@
         <v>75</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>75</v>
+        <v>108</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>75</v>
+        <v>196</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>75</v>
+        <v>197</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>75</v>
@@ -3056,7 +3086,7 @@
         <v>75</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>76</v>
@@ -3071,18 +3101,18 @@
         <v>96</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>195</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3102,16 +3132,16 @@
         <v>75</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3162,7 +3192,7 @@
         <v>75</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>76</v>
@@ -3177,18 +3207,18 @@
         <v>96</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>75</v>
+        <v>204</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3208,21 +3238,19 @@
         <v>75</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="N21" s="2"/>
-      <c r="O21" t="s" s="2">
-        <v>205</v>
-      </c>
+      <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>75</v>
       </c>
@@ -3270,7 +3298,7 @@
         <v>75</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>76</v>
@@ -3285,7 +3313,7 @@
         <v>96</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>75</v>
@@ -3293,10 +3321,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3316,19 +3344,21 @@
         <v>75</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
+      <c r="O22" t="s" s="2">
+        <v>214</v>
+      </c>
       <c r="P22" t="s" s="2">
         <v>75</v>
       </c>
@@ -3376,7 +3406,7 @@
         <v>75</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>76</v>
@@ -3391,9 +3421,115 @@
         <v>96</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="AL22" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K23" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q23" s="2"/>
+      <c r="R23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF23" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK23" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AL23" t="s" s="2">
         <v>75</v>
       </c>
     </row>

--- a/StructureDefinition-profile-OrganizationAffiliation.xlsx
+++ b/StructureDefinition-profile-OrganizationAffiliation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T22:05:43.2537661-06:00</t>
+    <t>2026-02-17T14:42:26.8710127-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -453,7 +453,7 @@
     <t>The contact details of communication devices available at the participatingOrganization relevant to this Affiliation.</t>
   </si>
   <si>
-    <t>Element `OrganizationAffiliation.contact` is will have a context of OrganizationAffiliation based on following the parent source element upwards and mapping to `OrganizationAffiliation`.</t>
+    <t>Element `OrganizationAffiliation.contact` has a context of OrganizationAffiliation based on following the parent source element upwards and mapping to `OrganizationAffiliation`.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1

--- a/StructureDefinition-profile-OrganizationAffiliation.xlsx
+++ b/StructureDefinition-profile-OrganizationAffiliation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T14:42:26.8710127-06:00</t>
+    <t>2026-02-20T11:59:20.9078204-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/OrganizationAffiliation|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/OrganizationAffiliation</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -443,7 +443,7 @@
     <t>contact</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-OrganizationAffiliation.contact|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-OrganizationAffiliation.contact}
 </t>
   </si>
   <si>
@@ -1028,7 +1028,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="92.71484375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="78.30078125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-profile-OrganizationAffiliation.xlsx
+++ b/StructureDefinition-profile-OrganizationAffiliation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T11:59:20.9078204-06:00</t>
+    <t>2026-02-21T13:36:54.3119902-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/OrganizationAffiliation</t>
+    <t>http://hl7.org/fhir/StructureDefinition/OrganizationAffiliation|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -443,7 +443,7 @@
     <t>contact</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-OrganizationAffiliation.contact}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-OrganizationAffiliation.contact|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -1028,7 +1028,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="78.30078125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="92.71484375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
